--- a/data/Metadata_2015_2020.xlsx
+++ b/data/Metadata_2015_2020.xlsx
@@ -575,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN52"/>
+  <dimension ref="A1:AN86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AL79" sqref="AL79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -592,21 +592,27 @@
     <col min="7" max="7" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.77734375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.88671875" customWidth="1"/>
-    <col min="19" max="20" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.5546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.88671875" customWidth="1"/>
+    <col min="22" max="22" width="9" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="28" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.5546875" customWidth="1"/>
+    <col min="31" max="31" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="15.6640625" customWidth="1"/>
     <col min="33" max="33" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="16.6640625" customWidth="1"/>
@@ -2851,10 +2857,10 @@
         <v>960000</v>
       </c>
       <c r="AF23" s="4">
-        <v>100373800.5</v>
+        <v>200747601</v>
       </c>
       <c r="AG23" s="4">
-        <v>32056343.167384386</v>
+        <v>64112686.334768772</v>
       </c>
       <c r="AH23" s="4">
         <v>447960000</v>
@@ -2973,10 +2979,10 @@
         <v>5840000</v>
       </c>
       <c r="AF24" s="4">
-        <v>121932961.875</v>
+        <v>243865923.75</v>
       </c>
       <c r="AG24" s="4">
-        <v>55339182.532936402</v>
+        <v>110678365.0658728</v>
       </c>
       <c r="AH24" s="4">
         <v>450177777.77777779</v>
@@ -3095,10 +3101,10 @@
         <v>2945000</v>
       </c>
       <c r="AF25" s="4">
-        <v>148440127.5</v>
+        <v>296880255</v>
       </c>
       <c r="AG25" s="4">
-        <v>50972237.241682112</v>
+        <v>101944474.48336422</v>
       </c>
       <c r="AH25" s="4">
         <v>632968888.88888896</v>
@@ -3217,10 +3223,10 @@
         <v>2380000</v>
       </c>
       <c r="AF26" s="4">
-        <v>135716688</v>
+        <v>271433376</v>
       </c>
       <c r="AG26" s="4">
-        <v>30183184.59385838</v>
+        <v>60366369.18771676</v>
       </c>
       <c r="AH26" s="4">
         <v>502440000</v>
@@ -3339,10 +3345,10 @@
         <v>5680000</v>
       </c>
       <c r="AF27" s="4">
-        <v>130768683.75</v>
+        <v>261537367.5</v>
       </c>
       <c r="AG27" s="4">
-        <v>19713320.795693897</v>
+        <v>39426641.591387793</v>
       </c>
       <c r="AH27" s="4">
         <v>486751111.11111104</v>
@@ -3461,10 +3467,10 @@
         <v>10000</v>
       </c>
       <c r="AF28" s="4">
-        <v>127234395</v>
+        <v>254468790</v>
       </c>
       <c r="AG28" s="4">
-        <v>54575237.256201446</v>
+        <v>109150474.51240289</v>
       </c>
       <c r="AH28" s="4">
         <v>605800000</v>
@@ -3583,10 +3589,10 @@
         <v>5000</v>
       </c>
       <c r="AF29" s="4">
-        <v>182722728.375</v>
+        <v>365445456.75</v>
       </c>
       <c r="AG29" s="4">
-        <v>38610296.070310414</v>
+        <v>77220592.140620828</v>
       </c>
       <c r="AH29" s="4">
         <v>478688888.88888896</v>
@@ -3705,10 +3711,10 @@
         <v>20000</v>
       </c>
       <c r="AF30" s="4">
-        <v>173180148.75</v>
+        <v>346360297.5</v>
       </c>
       <c r="AG30" s="4">
-        <v>58904812.5</v>
+        <v>117809625</v>
       </c>
       <c r="AH30" s="4">
         <v>608382222.22222209</v>
@@ -3827,10 +3833,10 @@
         <v>5000</v>
       </c>
       <c r="AF31" s="4">
-        <v>133596114.74999999</v>
+        <v>267192229.49999997</v>
       </c>
       <c r="AG31" s="4">
-        <v>31602857.357530501</v>
+        <v>63205714.715061001</v>
       </c>
       <c r="AH31" s="4">
         <v>597657777.77777779</v>
@@ -3949,10 +3955,10 @@
         <v>960000</v>
       </c>
       <c r="AF32" s="4">
-        <v>137130403.5</v>
+        <v>274260807</v>
       </c>
       <c r="AG32" s="4">
-        <v>30621438.880183298</v>
+        <v>61242877.760366596</v>
       </c>
       <c r="AH32" s="4">
         <v>658742222.22222221</v>
@@ -4071,10 +4077,10 @@
         <v>1050000</v>
       </c>
       <c r="AF33" s="4">
-        <v>148793556.375</v>
+        <v>297587112.75</v>
       </c>
       <c r="AG33" s="4">
-        <v>24054521.441730864</v>
+        <v>48109042.883461729</v>
       </c>
       <c r="AH33" s="4">
         <v>1467560000</v>
@@ -4189,10 +4195,10 @@
         <v>700000</v>
       </c>
       <c r="AF34" s="4">
-        <v>95425796.25</v>
+        <v>190851592.5</v>
       </c>
       <c r="AG34" s="4">
-        <v>39602262.244957559</v>
+        <v>79204524.489915118</v>
       </c>
       <c r="AH34" s="4">
         <v>1689200000</v>
@@ -4311,10 +4317,10 @@
         <v>950000</v>
       </c>
       <c r="AF35" s="4">
-        <v>108856093.5</v>
+        <v>217712187</v>
       </c>
       <c r="AG35" s="4">
-        <v>18159504.397563875</v>
+        <v>36319008.795127749</v>
       </c>
       <c r="AH35" s="4">
         <v>1658333333.3333335</v>
@@ -4433,10 +4439,10 @@
         <v>3500000</v>
       </c>
       <c r="AF36" s="4">
-        <v>109562951.25</v>
+        <v>219125902.5</v>
       </c>
       <c r="AG36" s="4">
-        <v>23557717.137657315</v>
+        <v>47115434.275314629</v>
       </c>
       <c r="AH36" s="4">
         <v>2148106666.6666665</v>
@@ -4555,10 +4561,10 @@
         <v>9250000</v>
       </c>
       <c r="AF37" s="4">
-        <v>116839428.0882353</v>
+        <v>233678856.17647061</v>
       </c>
       <c r="AG37" s="4">
-        <v>27361381.448563658</v>
+        <v>54722762.897127315</v>
       </c>
       <c r="AH37" s="4">
         <v>2649253333.333333</v>
@@ -4677,10 +4683,10 @@
         <v>600000</v>
       </c>
       <c r="AF38" s="4">
-        <v>85529787.75</v>
+        <v>171059575.5</v>
       </c>
       <c r="AG38" s="4">
-        <v>21192638.499060258</v>
+        <v>42385276.998120517</v>
       </c>
       <c r="AH38" s="4">
         <v>2316693333.3333335</v>
@@ -4795,10 +4801,10 @@
         <v>600000</v>
       </c>
       <c r="AF39" s="4">
-        <v>136423545.75</v>
+        <v>272847091.5</v>
       </c>
       <c r="AG39" s="4">
-        <v>27838990.217841092</v>
+        <v>55677980.435682185</v>
       </c>
       <c r="AH39" s="4">
         <v>1586253333.3333333</v>
@@ -4917,10 +4923,10 @@
         <v>900000</v>
       </c>
       <c r="AF40" s="4">
-        <v>116631528.75</v>
+        <v>233263057.5</v>
       </c>
       <c r="AG40" s="4">
-        <v>14137155</v>
+        <v>28274310</v>
       </c>
       <c r="AH40" s="4">
         <v>1655453333.3333335</v>
@@ -5039,10 +5045,10 @@
         <v>1600000</v>
       </c>
       <c r="AF41" s="4">
-        <v>93069603.75</v>
+        <v>186139207.5</v>
       </c>
       <c r="AG41" s="4">
-        <v>15093562.864581008</v>
+        <v>30187125.729162015</v>
       </c>
       <c r="AH41" s="4">
         <v>2053666666.6666665</v>
@@ -5161,10 +5167,10 @@
         <v>3250000</v>
       </c>
       <c r="AF42" s="4">
-        <v>109342058.203125</v>
+        <v>218684116.40625</v>
       </c>
       <c r="AG42" s="4">
-        <v>19970816.454753589</v>
+        <v>39941632.909507178</v>
       </c>
       <c r="AH42" s="4">
         <v>2371653333.3333335</v>
@@ -5281,10 +5287,10 @@
       </c>
       <c r="AE43" s="4"/>
       <c r="AF43" s="4">
-        <v>376519561.5</v>
+        <v>753039123</v>
       </c>
       <c r="AG43" s="4">
-        <v>129912099.64212418</v>
+        <v>259824199.28424835</v>
       </c>
       <c r="AH43" s="4">
         <v>1427940000</v>
@@ -5401,10 +5407,10 @@
       </c>
       <c r="AE44" s="4"/>
       <c r="AF44" s="4">
-        <v>472079997.3214286</v>
+        <v>944159994.64285719</v>
       </c>
       <c r="AG44" s="4">
-        <v>39616894.239596859</v>
+        <v>79233788.479193717</v>
       </c>
       <c r="AH44" s="4">
         <v>1239946666.6666667</v>
@@ -5521,10 +5527,10 @@
       </c>
       <c r="AE45" s="4"/>
       <c r="AF45" s="4">
-        <v>558613971.875</v>
+        <v>1117227943.75</v>
       </c>
       <c r="AG45" s="4">
-        <v>52556186.413178198</v>
+        <v>105112372.8263564</v>
       </c>
       <c r="AH45" s="4">
         <v>1531866666.6666665</v>
@@ -5641,10 +5647,10 @@
       </c>
       <c r="AE46" s="4"/>
       <c r="AF46" s="4">
-        <v>843409815.340909</v>
+        <v>1686819630.681818</v>
       </c>
       <c r="AG46" s="4">
-        <v>146169848.57598978</v>
+        <v>292339697.15197957</v>
       </c>
       <c r="AH46" s="4">
         <v>2262020000</v>
@@ -5761,10 +5767,10 @@
       </c>
       <c r="AE47" s="4"/>
       <c r="AF47" s="4">
-        <v>663482388.06818175</v>
+        <v>1326964776.1363635</v>
       </c>
       <c r="AG47" s="4">
-        <v>137193158.37395805</v>
+        <v>274386316.7479161</v>
       </c>
       <c r="AH47" s="4">
         <v>1993320000</v>
@@ -5881,10 +5887,10 @@
       </c>
       <c r="AE48" s="4"/>
       <c r="AF48" s="4">
-        <v>318557226</v>
+        <v>637114452</v>
       </c>
       <c r="AG48" s="4">
-        <v>76105903.531499386</v>
+        <v>152211807.06299877</v>
       </c>
       <c r="AH48" s="4">
         <v>1448813333.3333335</v>
@@ -6001,10 +6007,10 @@
       </c>
       <c r="AE49" s="4"/>
       <c r="AF49" s="4">
-        <v>441197045.625</v>
+        <v>882394091.25</v>
       </c>
       <c r="AG49" s="4">
-        <v>73918552.27792345</v>
+        <v>147837104.5558469</v>
       </c>
       <c r="AH49" s="4">
         <v>1489606666.6666665</v>
@@ -6121,10 +6127,10 @@
       </c>
       <c r="AE50" s="4"/>
       <c r="AF50" s="4">
-        <v>506581387.5</v>
+        <v>1013162775</v>
       </c>
       <c r="AG50" s="4">
-        <v>55257612.175888836</v>
+        <v>110515224.35177767</v>
       </c>
       <c r="AH50" s="4">
         <v>1563980000</v>
@@ -6241,10 +6247,10 @@
       </c>
       <c r="AE51" s="4"/>
       <c r="AF51" s="4">
-        <v>477128981.25</v>
+        <v>954257962.5</v>
       </c>
       <c r="AG51" s="4">
-        <v>105491805.06306049</v>
+        <v>210983610.12612098</v>
       </c>
       <c r="AH51" s="4">
         <v>1523833333.3333335</v>
@@ -6361,10 +6367,10 @@
       </c>
       <c r="AE52" s="4"/>
       <c r="AF52" s="4">
-        <v>666213429.37500012</v>
+        <v>1332426858.7500002</v>
       </c>
       <c r="AG52" s="4">
-        <v>78610894.425714001</v>
+        <v>157221788.851428</v>
       </c>
       <c r="AH52" s="4">
         <v>1621860000</v>
@@ -6387,6 +6393,126 @@
       <c r="AN52" s="2">
         <v>0.6</v>
       </c>
+    </row>
+    <row r="57" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AF57" s="4"/>
+      <c r="AG57" s="4"/>
+    </row>
+    <row r="58" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AF58" s="4"/>
+      <c r="AG58" s="4"/>
+    </row>
+    <row r="59" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AF59" s="4"/>
+      <c r="AG59" s="4"/>
+    </row>
+    <row r="60" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AF60" s="4"/>
+      <c r="AG60" s="4"/>
+    </row>
+    <row r="61" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AF61" s="4"/>
+      <c r="AG61" s="4"/>
+    </row>
+    <row r="62" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AF62" s="4"/>
+      <c r="AG62" s="4"/>
+    </row>
+    <row r="63" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AF63" s="4"/>
+      <c r="AG63" s="4"/>
+    </row>
+    <row r="64" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AF64" s="4"/>
+      <c r="AG64" s="4"/>
+    </row>
+    <row r="65" spans="32:33" x14ac:dyDescent="0.3">
+      <c r="AF65" s="4"/>
+      <c r="AG65" s="4"/>
+    </row>
+    <row r="66" spans="32:33" x14ac:dyDescent="0.3">
+      <c r="AF66" s="4"/>
+      <c r="AG66" s="4"/>
+    </row>
+    <row r="67" spans="32:33" x14ac:dyDescent="0.3">
+      <c r="AF67" s="4"/>
+      <c r="AG67" s="4"/>
+    </row>
+    <row r="68" spans="32:33" x14ac:dyDescent="0.3">
+      <c r="AF68" s="4"/>
+      <c r="AG68" s="4"/>
+    </row>
+    <row r="69" spans="32:33" x14ac:dyDescent="0.3">
+      <c r="AF69" s="4"/>
+      <c r="AG69" s="4"/>
+    </row>
+    <row r="70" spans="32:33" x14ac:dyDescent="0.3">
+      <c r="AF70" s="4"/>
+      <c r="AG70" s="4"/>
+    </row>
+    <row r="71" spans="32:33" x14ac:dyDescent="0.3">
+      <c r="AF71" s="4"/>
+      <c r="AG71" s="4"/>
+    </row>
+    <row r="72" spans="32:33" x14ac:dyDescent="0.3">
+      <c r="AF72" s="4"/>
+      <c r="AG72" s="4"/>
+    </row>
+    <row r="73" spans="32:33" x14ac:dyDescent="0.3">
+      <c r="AF73" s="4"/>
+      <c r="AG73" s="4"/>
+    </row>
+    <row r="74" spans="32:33" x14ac:dyDescent="0.3">
+      <c r="AF74" s="4"/>
+      <c r="AG74" s="4"/>
+    </row>
+    <row r="75" spans="32:33" x14ac:dyDescent="0.3">
+      <c r="AF75" s="4"/>
+      <c r="AG75" s="4"/>
+    </row>
+    <row r="76" spans="32:33" x14ac:dyDescent="0.3">
+      <c r="AF76" s="4"/>
+      <c r="AG76" s="4"/>
+    </row>
+    <row r="77" spans="32:33" x14ac:dyDescent="0.3">
+      <c r="AF77" s="4"/>
+      <c r="AG77" s="4"/>
+    </row>
+    <row r="78" spans="32:33" x14ac:dyDescent="0.3">
+      <c r="AF78" s="4"/>
+      <c r="AG78" s="4"/>
+    </row>
+    <row r="79" spans="32:33" x14ac:dyDescent="0.3">
+      <c r="AF79" s="4"/>
+      <c r="AG79" s="4"/>
+    </row>
+    <row r="80" spans="32:33" x14ac:dyDescent="0.3">
+      <c r="AF80" s="4"/>
+      <c r="AG80" s="4"/>
+    </row>
+    <row r="81" spans="32:33" x14ac:dyDescent="0.3">
+      <c r="AF81" s="4"/>
+      <c r="AG81" s="4"/>
+    </row>
+    <row r="82" spans="32:33" x14ac:dyDescent="0.3">
+      <c r="AF82" s="4"/>
+      <c r="AG82" s="4"/>
+    </row>
+    <row r="83" spans="32:33" x14ac:dyDescent="0.3">
+      <c r="AF83" s="4"/>
+      <c r="AG83" s="4"/>
+    </row>
+    <row r="84" spans="32:33" x14ac:dyDescent="0.3">
+      <c r="AF84" s="4"/>
+      <c r="AG84" s="4"/>
+    </row>
+    <row r="85" spans="32:33" x14ac:dyDescent="0.3">
+      <c r="AF85" s="4"/>
+      <c r="AG85" s="4"/>
+    </row>
+    <row r="86" spans="32:33" x14ac:dyDescent="0.3">
+      <c r="AF86" s="4"/>
+      <c r="AG86" s="4"/>
     </row>
   </sheetData>
   <sortState ref="A2:AK55">
